--- a/交易记录.xlsx
+++ b/交易记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="289">
   <si>
     <t>合约</t>
   </si>
@@ -880,10 +880,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>平仓盈亏逐笔对冲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>之前的查不到了</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -894,6 +890,19 @@
   <si>
     <t>移动止损</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平仓盈亏(逐笔对冲)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR709</t>
+  </si>
+  <si>
+    <t>6,659.000  </t>
+  </si>
+  <si>
+    <t>66,590.00  </t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1102,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1118,21 +1127,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1141,6 +1135,28 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1519,8 +1535,8 @@
       <c r="J2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="23" t="s">
-        <v>283</v>
+      <c r="L2" s="16" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2926,1574 +2942,1610 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R49"/>
+  <dimension ref="A1:R50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L40" sqref="L40"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="1" style="14" customWidth="1"/>
-    <col min="5" max="5" width="16.75" style="14" customWidth="1"/>
-    <col min="6" max="6" width="9" style="14"/>
-    <col min="7" max="7" width="15" style="14" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="14" customWidth="1"/>
-    <col min="9" max="9" width="9" style="14"/>
-    <col min="10" max="10" width="16.5" style="14" customWidth="1"/>
-    <col min="11" max="11" width="10.125" style="25" customWidth="1"/>
+    <col min="1" max="1" width="9.875" style="26" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="26" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="26" customWidth="1"/>
+    <col min="4" max="4" width="1" style="26" customWidth="1"/>
+    <col min="5" max="5" width="16.75" style="26" customWidth="1"/>
+    <col min="6" max="6" width="9" style="26" customWidth="1"/>
+    <col min="7" max="7" width="15" style="26" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="26" customWidth="1"/>
+    <col min="9" max="9" width="9" style="26"/>
+    <col min="10" max="10" width="19.375" style="26" customWidth="1"/>
+    <col min="11" max="11" width="10.125" style="18" customWidth="1"/>
     <col min="12" max="12" width="11.375" style="13" customWidth="1"/>
     <col min="13" max="18" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="22" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:18" s="15" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A1" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="K1" s="26" t="s">
+      <c r="J1" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="L1" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="L1" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="15">
+      <c r="A2" s="23">
         <v>42738</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="17" t="s">
+      <c r="D2" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="17" t="s">
+      <c r="F2" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="25" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="15">
+      <c r="A3" s="23">
         <v>42740</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="17" t="s">
+      <c r="F3" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="25" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="15">
+      <c r="A4" s="23">
         <v>42741</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="F4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="17" t="s">
+      <c r="F4" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="25" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="15">
+      <c r="A5" s="23">
         <v>42747</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="17" t="s">
+      <c r="D5" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="17" t="s">
+      <c r="F5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="25" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="17" t="s">
+      <c r="D6" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="25" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="15">
+      <c r="A7" s="23">
         <v>42751</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="17" t="s">
+      <c r="D7" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="F7" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="17" t="s">
+      <c r="F7" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="25" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="15">
+      <c r="A8" s="23">
         <v>42752</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="17" t="s">
+      <c r="D8" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="17" t="s">
+      <c r="F8" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="25" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="17" t="s">
+      <c r="D9" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="17" t="s">
+      <c r="F9" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="25" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="17" t="s">
+      <c r="D10" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="17" t="s">
+      <c r="F10" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="25" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="15">
+      <c r="A11" s="23">
         <v>42754</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="17" t="s">
+      <c r="D11" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="F11" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="17" t="s">
+      <c r="F11" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="25" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="17" t="s">
+      <c r="D12" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="F12" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="17" t="s">
+      <c r="F12" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="25" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="17" t="s">
+      <c r="D13" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="F13" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="17" t="s">
+      <c r="F13" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="25" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="15">
+      <c r="A14" s="23">
         <v>42755</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="17" t="s">
+      <c r="D14" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="F14" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="17" t="s">
+      <c r="F14" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="I14" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="25" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="15">
+      <c r="A15" s="23">
         <v>42758</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="17" t="s">
+      <c r="F15" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="I15" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="J15" s="25" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="15">
+      <c r="A16" s="23">
         <v>42759</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="17" t="s">
+      <c r="D16" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="F16" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="17" t="s">
+      <c r="F16" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="25" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="17" t="s">
+      <c r="D17" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="F17" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="17" t="s">
+      <c r="F17" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="I17" s="17" t="s">
+      <c r="I17" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="25" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="15">
+      <c r="A18" s="23">
         <v>42772</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="17" t="s">
+      <c r="D18" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="I18" s="17" t="s">
+      <c r="I18" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="J18" s="17" t="s">
+      <c r="J18" s="25" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="15">
+      <c r="A19" s="23">
         <v>42774</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="17" t="s">
+      <c r="D19" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="F19" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="17" t="s">
+      <c r="F19" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="J19" s="17" t="s">
+      <c r="J19" s="25" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="15">
+      <c r="A20" s="23">
         <v>42776</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="17" t="s">
+      <c r="D20" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="I20" s="17" t="s">
+      <c r="I20" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="J20" s="17" t="s">
+      <c r="J20" s="25" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="15">
+      <c r="A21" s="23">
         <v>42780</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="17" t="s">
+      <c r="D21" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="17" t="s">
+      <c r="I21" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="J21" s="17" t="s">
+      <c r="J21" s="25" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="17" t="s">
+      <c r="D22" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="H22" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="17" t="s">
+      <c r="I22" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="J22" s="17" t="s">
+      <c r="J22" s="25" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="17" t="s">
+      <c r="D23" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="G23" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="H23" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="17" t="s">
+      <c r="I23" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="J23" s="17" t="s">
+      <c r="J23" s="25" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="15">
+      <c r="A24" s="23">
         <v>42786</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="17" t="s">
+      <c r="D24" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="F24" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="17" t="s">
+      <c r="F24" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="H24" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="I24" s="17" t="s">
+      <c r="I24" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="J24" s="17" t="s">
+      <c r="J24" s="25" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="17" t="s">
+      <c r="D25" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="17" t="s">
+      <c r="G25" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="H25" s="16" t="s">
+      <c r="H25" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="I25" s="17" t="s">
+      <c r="I25" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="J25" s="17" t="s">
+      <c r="J25" s="25" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="15">
+      <c r="A26" s="23">
         <v>42787</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="17" t="s">
+      <c r="D26" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="G26" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="H26" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="17" t="s">
+      <c r="I26" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="J26" s="17" t="s">
+      <c r="J26" s="25" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="15">
+      <c r="A27" s="23">
         <v>42789</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="17" t="s">
+      <c r="D27" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="17" t="s">
+      <c r="G27" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="H27" s="16" t="s">
+      <c r="H27" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="17" t="s">
+      <c r="I27" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="J27" s="17" t="s">
+      <c r="J27" s="25" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="17" t="s">
+      <c r="D28" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="F28" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="17" t="s">
+      <c r="F28" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="H28" s="16" t="s">
+      <c r="H28" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="I28" s="17" t="s">
+      <c r="I28" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="J28" s="17" t="s">
+      <c r="J28" s="25" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="15">
+      <c r="A29" s="23">
         <v>42790</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="17" t="s">
+      <c r="D29" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="F29" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="17" t="s">
+      <c r="F29" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="H29" s="16" t="s">
+      <c r="H29" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="17" t="s">
+      <c r="I29" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="J29" s="17" t="s">
+      <c r="J29" s="25" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="15">
+      <c r="A30" s="23">
         <v>42793</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="17" t="s">
+      <c r="D30" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="F30" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" s="17" t="s">
+      <c r="F30" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="H30" s="16" t="s">
+      <c r="H30" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="I30" s="17" t="s">
+      <c r="I30" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="J30" s="17" t="s">
+      <c r="J30" s="25" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="15">
+      <c r="A31" s="23">
         <v>42796</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="17" t="s">
+      <c r="D31" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="F31" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" s="17" t="s">
+      <c r="F31" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="H31" s="16" t="s">
+      <c r="H31" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="I31" s="17" t="s">
+      <c r="I31" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="J31" s="17" t="s">
+      <c r="J31" s="25" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="17" t="s">
+      <c r="D32" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F32" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="17" t="s">
+      <c r="G32" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="H32" s="16" t="s">
+      <c r="H32" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="I32" s="17" t="s">
+      <c r="I32" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="J32" s="17" t="s">
+      <c r="J32" s="25" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="15">
+      <c r="A33" s="23">
         <v>42797</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="17" t="s">
+      <c r="D33" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="F33" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" s="17" t="s">
+      <c r="F33" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="H33" s="16" t="s">
+      <c r="H33" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="17" t="s">
+      <c r="I33" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="J33" s="17" t="s">
+      <c r="J33" s="25" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="15">
+      <c r="A34" s="23">
         <v>42802</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="17" t="s">
+      <c r="D34" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="F34" s="17" t="s">
+      <c r="F34" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G34" s="17" t="s">
+      <c r="G34" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="H34" s="16" t="s">
+      <c r="H34" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="I34" s="17" t="s">
+      <c r="I34" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="J34" s="17" t="s">
+      <c r="J34" s="25" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="15">
+      <c r="A35" s="23">
         <v>42803</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="17" t="s">
+      <c r="D35" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="F35" s="17" t="s">
+      <c r="F35" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G35" s="17" t="s">
+      <c r="G35" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="H35" s="16" t="s">
+      <c r="H35" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I35" s="17" t="s">
+      <c r="I35" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="J35" s="17" t="s">
+      <c r="J35" s="25" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="15">
+      <c r="A36" s="23">
         <v>42804</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="17" t="s">
+      <c r="D36" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="F36" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" s="17" t="s">
+      <c r="F36" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="H36" s="16" t="s">
+      <c r="H36" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="I36" s="17" t="s">
+      <c r="I36" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="J36" s="17" t="s">
+      <c r="J36" s="25" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="15">
+      <c r="A37" s="23">
         <v>42808</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="17" t="s">
+      <c r="D37" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="F37" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" s="17" t="s">
+      <c r="F37" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="H37" s="16" t="s">
+      <c r="H37" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="I37" s="17" t="s">
+      <c r="I37" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="J37" s="17" t="s">
+      <c r="J37" s="25" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="15">
+      <c r="A38" s="23">
         <v>42810</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="17" t="s">
+      <c r="D38" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="F38" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" s="17" t="s">
+      <c r="F38" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="H38" s="16" t="s">
+      <c r="H38" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I38" s="17" t="s">
+      <c r="I38" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="J38" s="17" t="s">
+      <c r="J38" s="25" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="15">
+      <c r="A39" s="23">
         <v>42811</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="17" t="s">
+      <c r="D39" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="F39" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" s="17" t="s">
+      <c r="F39" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="H39" s="16" t="s">
+      <c r="H39" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I39" s="17" t="s">
+      <c r="I39" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="J39" s="17" t="s">
+      <c r="J39" s="25" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="15">
+      <c r="A40" s="23">
         <v>42814</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="17" t="s">
+      <c r="D40" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="F40" s="17" t="s">
+      <c r="F40" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G40" s="17" t="s">
+      <c r="G40" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="H40" s="16" t="s">
+      <c r="H40" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="I40" s="17" t="s">
+      <c r="I40" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="J40" s="17" t="s">
+      <c r="J40" s="25" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="15">
+      <c r="A41" s="23">
         <v>42816</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="17" t="s">
+      <c r="D41" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="F41" s="17" t="s">
+      <c r="F41" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G41" s="17" t="s">
+      <c r="G41" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="H41" s="16" t="s">
+      <c r="H41" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="I41" s="17" t="s">
+      <c r="I41" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="J41" s="17" t="s">
+      <c r="J41" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="K41" s="25">
+      <c r="K41" s="18">
         <v>2655</v>
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="17" t="s">
+      <c r="D42" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="F42" s="17" t="s">
+      <c r="F42" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G42" s="17" t="s">
+      <c r="G42" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="H42" s="16" t="s">
+      <c r="H42" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I42" s="17" t="s">
+      <c r="I42" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="J42" s="17" t="s">
+      <c r="J42" s="25" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="15">
+      <c r="A43" s="23">
         <v>42818</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="17" t="s">
+      <c r="D43" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="F43" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" s="17" t="s">
+      <c r="F43" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="H43" s="16" t="s">
+      <c r="H43" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="I43" s="17" t="s">
+      <c r="I43" s="25" t="s">
         <v>268</v>
       </c>
-      <c r="J43" s="17" t="s">
+      <c r="J43" s="25" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="17" t="s">
+      <c r="D44" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="F44" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G44" s="17" t="s">
+      <c r="F44" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" s="25" t="s">
         <v>271</v>
       </c>
-      <c r="H44" s="16" t="s">
+      <c r="H44" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I44" s="17" t="s">
+      <c r="I44" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="J44" s="17" t="s">
+      <c r="J44" s="25" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="15">
+      <c r="A45" s="23">
         <v>42821</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="17" t="s">
+      <c r="D45" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="F45" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" s="17" t="s">
+      <c r="F45" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="H45" s="16" t="s">
+      <c r="H45" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="I45" s="17" t="s">
+      <c r="I45" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="J45" s="17" t="s">
+      <c r="J45" s="25" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="17" t="s">
+      <c r="D46" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="F46" s="17" t="s">
+      <c r="F46" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G46" s="17" t="s">
+      <c r="G46" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="H46" s="16" t="s">
+      <c r="H46" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="I46" s="17" t="s">
+      <c r="I46" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="J46" s="17" t="s">
+      <c r="J46" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="K46" s="25">
+      <c r="K46" s="18">
         <v>3887</v>
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="15">
+      <c r="A47" s="23">
         <v>42822</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D47" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="17" t="s">
+      <c r="D47" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F47" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" s="17" t="s">
+      <c r="F47" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H47" s="16" t="s">
+      <c r="H47" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I47" s="17" t="s">
+      <c r="I47" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="J47" s="17" t="s">
+      <c r="J47" s="25" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="17" t="s">
+      <c r="D48" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F48" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" s="17" t="s">
+      <c r="F48" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="H48" s="16" t="s">
+      <c r="H48" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I48" s="17" t="s">
+      <c r="I48" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="J48" s="17" t="s">
+      <c r="J48" s="25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="15">
+    <row r="49" spans="1:11">
+      <c r="A49" s="23">
         <v>42823</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="17" t="s">
+      <c r="D49" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F49" s="17" t="s">
+      <c r="F49" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G49" s="17" t="s">
+      <c r="G49" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H49" s="16" t="s">
+      <c r="H49" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I49" s="17" t="s">
+      <c r="I49" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="J49" s="17">
+      <c r="J49" s="25">
         <v>-360</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="27">
+        <v>42824</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="F50" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="H50" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="I50" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="J50" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="K50" s="18">
+        <v>6827</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/交易记录.xlsx
+++ b/交易记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="292">
   <si>
     <t>合约</t>
   </si>
@@ -903,6 +903,15 @@
   </si>
   <si>
     <t>66,590.00  </t>
+  </si>
+  <si>
+    <t>2,601.000  </t>
+  </si>
+  <si>
+    <t>26,010.00  </t>
+  </si>
+  <si>
+    <t>40.00  </t>
   </si>
 </sst>
 </file>
@@ -2942,11 +2951,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R50"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K50" sqref="K50"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4542,6 +4551,38 @@
         <v>6827</v>
       </c>
     </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="10">
+        <v>42825</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
